--- a/trojmiejskie3v3.xlsx
+++ b/trojmiejskie3v3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Kto</t>
   </si>
@@ -28,38 +28,16 @@
     <t>Reakcje</t>
   </si>
   <si>
+    <t>Monika Skibicka</t>
+  </si>
+  <si>
     <t>Szymon Kowalski</t>
   </si>
   <si>
-    <t>Daniel GoÅÄbiewski</t>
-  </si>
-  <si>
-    <t>Jakub Daleki</t>
-  </si>
-  <si>
-    <t>Kuba Tarwacki</t>
-  </si>
-  <si>
-    <t>Mateusz Redzimski</t>
-  </si>
-  <si>
-    <t>Krzysiek Wicki</t>
-  </si>
-  <si>
-    <t>Aleksander Kliszczyk</t>
-  </si>
-  <si>
-    <t>Maciek KrÃ³l</t>
-  </si>
-  <si>
-    <t>Kuba GÃ³ralski</t>
-  </si>
-  <si>
-    <t>Karol Rynkowski</t>
-  </si>
-  <si>
-    <t>Marek DÄ-browski</t>
+    <t>Krzysztof Skibicki</t>
+  </si>
+  <si>
+    <t>Wiktoria Kwiatkowska</t>
   </si>
 </sst>
 </file>
@@ -391,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,18 +389,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>2209</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>1441</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -431,150 +409,45 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>189</v>
+        <v>2500</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="I2">
-        <v>104</v>
+        <v>771</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2">
-        <v>9</v>
+        <v>3016</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>1504</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>51</v>
+        <v>830</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="S2">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2">
-        <v>13</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>9</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2">
-        <v>45</v>
-      </c>
-      <c r="AG2">
-        <v>6</v>
-      </c>
-      <c r="AH2">
-        <v>25</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP2">
-        <v>167</v>
-      </c>
-      <c r="AQ2">
-        <v>11</v>
-      </c>
-      <c r="AR2">
-        <v>110</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU2">
-        <v>46</v>
-      </c>
-      <c r="AV2">
-        <v>13</v>
-      </c>
-      <c r="AW2">
-        <v>36</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
         <v>0</v>
       </c>
     </row>
